--- a/Data/phenotypic data/RawData/2011 Data/BogUpper5-R9.xlsx
+++ b/Data/phenotypic data/RawData/2011 Data/BogUpper5-R9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="160" windowWidth="28760" windowHeight="18080"/>
+    <workbookView xWindow="160" yWindow="160" windowWidth="25440" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="233">
   <si>
     <t>Date measured:</t>
   </si>
@@ -879,9 +879,6 @@
     <t xml:space="preserve">large </t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t xml:space="preserve">open </t>
   </si>
   <si>
@@ -942,16 +939,10 @@
     <t>pyrriform</t>
   </si>
   <si>
-    <t>ppinted</t>
-  </si>
-  <si>
     <t>pionted</t>
   </si>
   <si>
     <t>poitned</t>
-  </si>
-  <si>
-    <t>mopen</t>
   </si>
   <si>
     <t>** upright was cut at 11.6 cm</t>
@@ -976,6 +967,9 @@
   </si>
   <si>
     <t>**0.9/1.0</t>
+  </si>
+  <si>
+    <t>*11.29</t>
   </si>
 </sst>
 </file>
@@ -1660,11 +1654,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W816"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
-      <selection activeCell="D653" sqref="D653"/>
+    <sheetView tabSelected="1" topLeftCell="A784" workbookViewId="0">
+      <selection activeCell="M832" sqref="M832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="6.5" hidden="1" customWidth="1"/>
+    <col min="11" max="22" width="6.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="9" t="s">
@@ -3136,7 +3135,7 @@
         <v>108</v>
       </c>
       <c r="W45" s="54" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3457,7 +3456,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3520,10 +3519,10 @@
         <v>5</v>
       </c>
       <c r="B53" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -3586,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -3601,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="H54" s="4">
         <v>4.4000000000000004</v>
@@ -3721,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -3787,7 +3786,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -4658,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -4967,7 +4966,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" s="4">
         <v>4</v>
@@ -5033,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C80" s="4">
         <v>2</v>
@@ -5117,7 +5116,7 @@
         <v>113</v>
       </c>
       <c r="H81" s="4">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="5">
@@ -6755,7 +6754,7 @@
         <v>109</v>
       </c>
       <c r="W110" s="53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -6941,7 +6940,7 @@
         <v>103</v>
       </c>
       <c r="R113" s="53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S113" s="4">
         <v>2</v>
@@ -7009,7 +7008,7 @@
         <v>105</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S114" s="4">
         <v>1</v>
@@ -7141,7 +7140,7 @@
         <v>118</v>
       </c>
       <c r="R116" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="S116" s="4">
         <v>2</v>
@@ -10932,7 +10931,7 @@
         <v>17.07</v>
       </c>
       <c r="M186" s="5">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="N186" s="5">
         <v>3.16</v>
@@ -11130,7 +11129,7 @@
         <v>20.440000000000001</v>
       </c>
       <c r="M189" s="5">
-        <v>2.06</v>
+        <v>3.06</v>
       </c>
       <c r="N189" s="5">
         <v>3.02</v>
@@ -11538,7 +11537,7 @@
         <v>109</v>
       </c>
       <c r="W196" s="53" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -13217,7 +13216,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="M226" s="5">
-        <v>5.3</v>
+        <v>2.6</v>
       </c>
       <c r="N226" s="5">
         <v>2.99</v>
@@ -21042,7 +21041,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="K365" s="5">
-        <v>26.72</v>
+        <v>25.72</v>
       </c>
       <c r="L365" s="5">
         <v>18.32</v>
@@ -21739,8 +21738,8 @@
       <c r="F377" s="4">
         <v>0</v>
       </c>
-      <c r="G377" s="4">
-        <v>811.29</v>
+      <c r="G377" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="H377" s="4">
         <v>5.8</v>
@@ -21809,11 +21808,9 @@
         <v>188</v>
       </c>
       <c r="H378" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="I378" s="4">
-        <v>0.8</v>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="I378" s="4"/>
       <c r="J378" s="5">
         <v>0.26300000000000001</v>
       </c>
@@ -25052,7 +25049,7 @@
         <v>9</v>
       </c>
       <c r="B436" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C436" s="4">
         <v>2</v>
@@ -27279,7 +27276,7 @@
       </c>
       <c r="F477" s="4"/>
       <c r="G477" s="4">
-        <v>5.91</v>
+        <v>4.91</v>
       </c>
       <c r="H477" s="4">
         <v>1.9</v>
@@ -28421,7 +28418,7 @@
         <v>23</v>
       </c>
       <c r="V495" s="53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="497" spans="1:22" ht="15">
@@ -28750,7 +28747,7 @@
         <v>2</v>
       </c>
       <c r="B504" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C504" s="4">
         <v>0</v>
@@ -28865,10 +28862,10 @@
         <v>103</v>
       </c>
       <c r="S505" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T505" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="U505" s="5">
         <v>21</v>
@@ -29457,7 +29454,7 @@
         <v>108</v>
       </c>
       <c r="W515" s="53" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="516" spans="1:23">
@@ -31454,7 +31451,7 @@
         <v>22.2</v>
       </c>
       <c r="L550" s="5">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="M550" s="5">
         <v>2.7530000000000001</v>
@@ -32379,7 +32376,7 @@
         <v>2.58</v>
       </c>
       <c r="O567" s="5" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="P567" s="5" t="s">
         <v>101</v>
@@ -32526,13 +32523,13 @@
         <v>2</v>
       </c>
       <c r="T569" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="U569" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="V569" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="570" spans="1:22">
@@ -32935,10 +32932,10 @@
         <v>1</v>
       </c>
       <c r="G577" s="4">
-        <v>6.83</v>
+        <v>6.17</v>
       </c>
       <c r="H577" s="4">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I577" s="4"/>
       <c r="J577" s="5">
@@ -33098,7 +33095,7 @@
         <v>103</v>
       </c>
       <c r="R579" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S579" s="4">
         <v>2</v>
@@ -34201,7 +34198,7 @@
         <v>19.93</v>
       </c>
       <c r="M599" s="5">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="N599" s="5">
         <v>3.08</v>
@@ -34412,7 +34409,7 @@
         <v>109</v>
       </c>
       <c r="W603" s="53" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="604" spans="1:23">
@@ -34957,6 +34954,9 @@
       <c r="C612" s="53">
         <v>1</v>
       </c>
+      <c r="D612" s="53">
+        <v>1</v>
+      </c>
       <c r="E612" s="53">
         <v>1</v>
       </c>
@@ -34970,7 +34970,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="I612" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J612" s="5">
         <v>0.14899999999999999</v>
@@ -35422,7 +35422,7 @@
         <v>3.25</v>
       </c>
       <c r="H622" s="4">
-        <v>4.75</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I622" s="4"/>
       <c r="J622" s="5">
@@ -35462,7 +35462,7 @@
         <v>23</v>
       </c>
       <c r="V622" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="623" spans="1:22">
@@ -35488,7 +35488,7 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="H623" s="4">
-        <v>2.2999999999999998</v>
+        <v>5</v>
       </c>
       <c r="I623" s="4"/>
       <c r="J623" s="5">
@@ -35507,7 +35507,7 @@
         <v>3.23</v>
       </c>
       <c r="O623" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P623" s="5" t="s">
         <v>40</v>
@@ -36273,7 +36273,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="K636" s="5">
-        <v>23.2</v>
+        <v>23.28</v>
       </c>
       <c r="L636" s="5">
         <v>18.2</v>
@@ -36477,10 +36477,10 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="K639" s="5">
-        <v>21.74</v>
+        <v>21.65</v>
       </c>
       <c r="L639" s="5">
-        <v>19.13</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="M639" s="5">
         <v>2.56</v>
@@ -37041,7 +37041,7 @@
         <v>4</v>
       </c>
       <c r="C651" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D651" s="4">
         <v>4</v>
@@ -37199,7 +37199,7 @@
         <v>0.106</v>
       </c>
       <c r="K653" s="5">
-        <v>24.04</v>
+        <v>24.02</v>
       </c>
       <c r="L653" s="5">
         <v>19.96</v>
@@ -37280,10 +37280,10 @@
         <v>101</v>
       </c>
       <c r="P654" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q654" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="R654" s="4" t="s">
         <v>105</v>
@@ -37415,7 +37415,7 @@
         <v>101</v>
       </c>
       <c r="Q656" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R656" s="4" t="s">
         <v>105</v>
@@ -38006,7 +38006,7 @@
         <v>2</v>
       </c>
       <c r="T666" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U666" s="5">
         <v>6</v>
@@ -38045,7 +38045,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="K667" s="5">
-        <v>23.22</v>
+        <v>25.22</v>
       </c>
       <c r="L667" s="5">
         <v>18.22</v>
@@ -38123,7 +38123,7 @@
         <v>3</v>
       </c>
       <c r="O668" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P668" s="5" t="s">
         <v>102</v>
@@ -39471,7 +39471,7 @@
         <v>0</v>
       </c>
       <c r="G693" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H693" s="4">
         <v>3.7</v>
@@ -39603,7 +39603,7 @@
         <v>0</v>
       </c>
       <c r="G695" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H695" s="4">
         <v>2</v>
@@ -39669,7 +39669,7 @@
         <v>0</v>
       </c>
       <c r="G696" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H696" s="4">
         <v>4.5999999999999996</v>
@@ -40699,7 +40699,7 @@
         <v>109</v>
       </c>
       <c r="W714" s="53" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="715" spans="1:23">
@@ -40974,7 +40974,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H720" s="4">
         <v>0.9</v>
@@ -41011,7 +41011,7 @@
         <v>2</v>
       </c>
       <c r="T720" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U720" s="5">
         <v>12</v>
@@ -41040,7 +41040,7 @@
         <v>0</v>
       </c>
       <c r="G721" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H721" s="4">
         <v>6.5</v>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="G722" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H722" s="4">
         <v>3.9</v>
@@ -41238,7 +41238,7 @@
         <v>0</v>
       </c>
       <c r="G724" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H724" s="4">
         <v>6.9</v>
@@ -41304,7 +41304,7 @@
         <v>0</v>
       </c>
       <c r="G725" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H725" s="4">
         <v>2.6</v>
@@ -41323,7 +41323,7 @@
         <v>2.59</v>
       </c>
       <c r="N725" s="5">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="O725" s="5" t="s">
         <v>7</v>
@@ -41502,7 +41502,7 @@
         <v>2</v>
       </c>
       <c r="G728" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H728" s="4">
         <v>5.5</v>
@@ -41568,7 +41568,7 @@
         <v>2</v>
       </c>
       <c r="G729" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H729" s="53">
         <v>5.5</v>
@@ -42252,7 +42252,7 @@
         <v>25</v>
       </c>
       <c r="Q742" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R742" s="4" t="s">
         <v>198</v>
@@ -42321,7 +42321,7 @@
         <v>198</v>
       </c>
       <c r="R743" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S743" s="4">
         <v>1</v>
@@ -42356,10 +42356,10 @@
         <v>0</v>
       </c>
       <c r="G744" s="4">
-        <v>5.27</v>
+        <v>4.93</v>
       </c>
       <c r="H744" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I744" s="4"/>
       <c r="J744" s="5">
@@ -42627,7 +42627,7 @@
         <v>25</v>
       </c>
       <c r="P749" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q749" s="4" t="s">
         <v>105</v>
@@ -42693,7 +42693,7 @@
         <v>7</v>
       </c>
       <c r="P750" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q750" s="4" t="s">
         <v>105</v>
@@ -42759,7 +42759,7 @@
         <v>25</v>
       </c>
       <c r="P751" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q751" s="4" t="s">
         <v>103</v>
@@ -42825,7 +42825,7 @@
         <v>25</v>
       </c>
       <c r="P752" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q752" s="4" t="s">
         <v>103</v>
@@ -42891,7 +42891,7 @@
         <v>25</v>
       </c>
       <c r="P753" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q753" s="4" t="s">
         <v>103</v>
@@ -42957,7 +42957,7 @@
         <v>25</v>
       </c>
       <c r="P754" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q754" s="4" t="s">
         <v>103</v>
@@ -42969,7 +42969,7 @@
         <v>1</v>
       </c>
       <c r="T754" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U754" s="5">
         <v>18</v>
@@ -43023,7 +43023,7 @@
         <v>7</v>
       </c>
       <c r="P755" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q755" s="4" t="s">
         <v>103</v>
@@ -43089,13 +43089,13 @@
         <v>25</v>
       </c>
       <c r="P756" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q756" s="4" t="s">
         <v>103</v>
       </c>
       <c r="R756" s="4" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="S756" s="4">
         <v>2</v>
@@ -43155,7 +43155,7 @@
         <v>7</v>
       </c>
       <c r="P757" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q757" s="4" t="s">
         <v>103</v>
@@ -43220,7 +43220,7 @@
         <v>25</v>
       </c>
       <c r="P758" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q758" s="53" t="s">
         <v>103</v>
@@ -43681,7 +43681,7 @@
         <v>103</v>
       </c>
       <c r="R768" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S768" s="4">
         <v>2</v>
@@ -44015,7 +44015,7 @@
         <v>103</v>
       </c>
       <c r="R773" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S773" s="4">
         <v>2</v>
@@ -44083,7 +44083,7 @@
         <v>103</v>
       </c>
       <c r="R774" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S774" s="4">
         <v>2</v>
@@ -44461,7 +44461,7 @@
         <v>103</v>
       </c>
       <c r="R781" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S781" s="4">
         <v>2</v>
@@ -45244,7 +45244,7 @@
         <v>25</v>
       </c>
       <c r="Q796" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R796" s="4" t="s">
         <v>105</v>
@@ -45680,7 +45680,7 @@
         <v>0</v>
       </c>
       <c r="G803" s="4">
-        <v>3.97</v>
+        <v>3.79</v>
       </c>
       <c r="H803" s="4">
         <v>1.5</v>
@@ -45870,7 +45870,7 @@
         <v>3</v>
       </c>
       <c r="I807" s="4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J807" s="5">
         <v>0.05</v>
@@ -45948,13 +45948,13 @@
         <v>21.74</v>
       </c>
       <c r="M808" s="5">
-        <v>3.68</v>
+        <v>3.08</v>
       </c>
       <c r="N808" s="5">
         <v>3.02</v>
       </c>
       <c r="O808" s="5" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="P808" s="5" t="s">
         <v>25</v>
@@ -45983,41 +45983,41 @@
         <v>3</v>
       </c>
       <c r="B809" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C809" s="4">
         <v>1</v>
       </c>
       <c r="D809" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E809" s="4">
         <v>0</v>
       </c>
       <c r="F809" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G809" s="4">
-        <v>4.7699999999999996</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="H809" s="4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I809" s="4"/>
       <c r="J809" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K809" s="5">
-        <v>23.43</v>
+        <v>24.15</v>
       </c>
       <c r="L809" s="5">
-        <v>18.14</v>
+        <v>19.55</v>
       </c>
       <c r="M809" s="5">
-        <v>2.82</v>
+        <v>3.14</v>
       </c>
       <c r="N809" s="5">
-        <v>2.81</v>
+        <v>3.17</v>
       </c>
       <c r="O809" s="5" t="s">
         <v>25</v>
@@ -46032,13 +46032,13 @@
         <v>105</v>
       </c>
       <c r="S809" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T809" s="5" t="s">
         <v>106</v>
       </c>
       <c r="U809" s="5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V809" s="53" t="s">
         <v>109</v>
@@ -46049,10 +46049,10 @@
         <v>4</v>
       </c>
       <c r="B810" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C810" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D810" s="4">
         <v>3</v>
@@ -46061,34 +46061,34 @@
         <v>0</v>
       </c>
       <c r="F810" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G810" s="4">
-        <v>7.42</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="H810" s="4">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="I810" s="4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J810" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="K810" s="5">
-        <v>26.87</v>
+        <v>24.08</v>
       </c>
       <c r="L810" s="5">
-        <v>17.420000000000002</v>
+        <v>19.48</v>
       </c>
       <c r="M810" s="5">
-        <v>2.85</v>
+        <v>3.31</v>
       </c>
       <c r="N810" s="5">
-        <v>3.06</v>
+        <v>2.92</v>
       </c>
       <c r="O810" s="5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="P810" s="5" t="s">
         <v>25</v>
@@ -46100,13 +46100,13 @@
         <v>105</v>
       </c>
       <c r="S810" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T810" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U810" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V810" s="53" t="s">
         <v>109</v>
@@ -46126,30 +46126,30 @@
         <v>3</v>
       </c>
       <c r="E811" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F811" s="4">
         <v>1</v>
       </c>
       <c r="G811" s="4">
-        <v>8.75</v>
+        <v>7.46</v>
       </c>
       <c r="H811" s="4">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="I811" s="4"/>
       <c r="J811" s="5"/>
       <c r="K811" s="5">
-        <v>28.2</v>
+        <v>29.1</v>
       </c>
       <c r="L811" s="5">
-        <v>18.27</v>
+        <v>20.95</v>
       </c>
       <c r="M811" s="5">
-        <v>3.27</v>
+        <v>4.25</v>
       </c>
       <c r="N811" s="5">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="O811" s="5" t="s">
         <v>7</v>
@@ -46164,19 +46164,19 @@
         <v>105</v>
       </c>
       <c r="S811" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T811" s="5" t="s">
         <v>106</v>
       </c>
       <c r="U811" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V811" s="53" t="s">
         <v>109</v>
       </c>
       <c r="W811" s="53" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="812" spans="1:23">
@@ -46184,44 +46184,44 @@
         <v>6</v>
       </c>
       <c r="B812" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C812" s="4">
         <v>2</v>
       </c>
       <c r="D812" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E812" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F812" s="4">
         <v>0</v>
       </c>
       <c r="G812" s="4">
-        <v>5.34</v>
+        <v>5.99</v>
       </c>
       <c r="H812" s="4">
-        <v>10.5</v>
+        <v>1.9</v>
       </c>
       <c r="I812" s="4"/>
       <c r="J812" s="5">
         <v>0.03</v>
       </c>
       <c r="K812" s="5">
-        <v>27.7</v>
+        <v>26.26</v>
       </c>
       <c r="L812" s="5">
-        <v>23.61</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="M812" s="5">
-        <v>5.34</v>
+        <v>3.38</v>
       </c>
       <c r="N812" s="5">
-        <v>3.31</v>
+        <v>2.81</v>
       </c>
       <c r="O812" s="5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="P812" s="5" t="s">
         <v>25</v>
@@ -46239,7 +46239,7 @@
         <v>106</v>
       </c>
       <c r="U812" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V812" s="53" t="s">
         <v>109</v>
@@ -46253,41 +46253,43 @@
         <v>5</v>
       </c>
       <c r="C813" s="4">
+        <v>2</v>
+      </c>
+      <c r="D813" s="4">
+        <v>3</v>
+      </c>
+      <c r="E813" s="4">
+        <v>1</v>
+      </c>
+      <c r="F813" s="4">
+        <v>1</v>
+      </c>
+      <c r="G813" s="4">
+        <v>4.82</v>
+      </c>
+      <c r="H813" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I813" s="4">
         <v>4</v>
       </c>
-      <c r="D813" s="4">
-        <v>1</v>
-      </c>
-      <c r="E813" s="4">
-        <v>3</v>
-      </c>
-      <c r="F813" s="4">
-        <v>0</v>
-      </c>
-      <c r="G813" s="4">
-        <v>3.12</v>
-      </c>
-      <c r="H813" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="I813" s="4"/>
       <c r="J813" s="5">
         <v>0.112</v>
       </c>
       <c r="K813" s="5">
-        <v>25.14</v>
+        <v>22.91</v>
       </c>
       <c r="L813" s="5">
-        <v>19.670000000000002</v>
+        <v>15.01</v>
       </c>
       <c r="M813" s="5">
-        <v>3.12</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="N813" s="5">
-        <v>2.76</v>
+        <v>3.18</v>
       </c>
       <c r="O813" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="P813" s="5" t="s">
         <v>25</v>
@@ -46308,7 +46310,7 @@
         <v>21</v>
       </c>
       <c r="V813" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="814" spans="1:23">
@@ -46316,41 +46318,41 @@
         <v>8</v>
       </c>
       <c r="B814" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C814" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D814" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E814" s="4">
         <v>0</v>
       </c>
       <c r="F814" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G814" s="4">
-        <v>3.98</v>
+        <v>8.41</v>
       </c>
       <c r="H814" s="4">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="I814" s="4"/>
       <c r="J814" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K814" s="5">
-        <v>26.57</v>
+        <v>23.41</v>
       </c>
       <c r="L814" s="5">
-        <v>20.6</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="M814" s="5">
-        <v>3.98</v>
+        <v>3.26</v>
       </c>
       <c r="N814" s="5">
-        <v>2.77</v>
+        <v>3.22</v>
       </c>
       <c r="O814" s="5" t="s">
         <v>25</v>
@@ -46371,10 +46373,10 @@
         <v>106</v>
       </c>
       <c r="U814" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V814" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="815" spans="1:23">
@@ -46382,10 +46384,10 @@
         <v>9</v>
       </c>
       <c r="B815" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C815" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D815" s="4">
         <v>1</v>
@@ -46394,34 +46396,32 @@
         <v>0</v>
       </c>
       <c r="F815" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G815" s="4">
-        <v>3.79</v>
+        <v>2.09</v>
       </c>
       <c r="H815" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="I815" s="4">
-        <v>3</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="I815" s="4"/>
       <c r="J815" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="K815" s="5">
-        <v>26.77</v>
+        <v>22.72</v>
       </c>
       <c r="L815" s="5">
-        <v>20.9</v>
+        <v>15.96</v>
       </c>
       <c r="M815" s="5">
-        <v>3.79</v>
+        <v>2.09</v>
       </c>
       <c r="N815" s="5">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O815" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="P815" s="5" t="s">
         <v>25</v>
@@ -46433,13 +46433,13 @@
         <v>105</v>
       </c>
       <c r="S815" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T815" s="5" t="s">
         <v>106</v>
       </c>
       <c r="U815" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="V815" s="53" t="s">
         <v>108</v>
@@ -46450,67 +46450,65 @@
         <v>10</v>
       </c>
       <c r="B816" s="53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C816" s="53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D816" s="53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E816" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F816" s="53">
         <v>0</v>
       </c>
       <c r="G816" s="53">
-        <v>5.69</v>
+        <v>23.76</v>
       </c>
       <c r="H816" s="53">
-        <v>4</v>
-      </c>
-      <c r="I816" s="53">
-        <v>2.1</v>
-      </c>
+        <v>16.3</v>
+      </c>
+      <c r="I816" s="53"/>
       <c r="J816" s="5">
         <v>0.14199999999999999</v>
       </c>
       <c r="K816" s="5">
-        <v>25.16</v>
+        <v>28.45</v>
       </c>
       <c r="L816" s="5">
-        <v>18.53</v>
+        <v>21.39</v>
       </c>
       <c r="M816" s="5">
-        <v>2.89</v>
+        <v>4.76</v>
       </c>
       <c r="N816" s="5">
-        <v>2.87</v>
+        <v>3.06</v>
       </c>
       <c r="O816" s="5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="P816" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Q816" s="53" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="R816" s="53" t="s">
         <v>105</v>
       </c>
       <c r="S816" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T816" s="5" t="s">
         <v>106</v>
       </c>
       <c r="U816" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V816" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
